--- a/output/junior/8_count.xlsx
+++ b/output/junior/8_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t>list</t>
   </si>
@@ -22,6 +22,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>[None, [[0, 2], [1, 2], [2, 2], [2, 3]], None, [[0, 4], [1, 4], [2, 4], [2, 5]], [[3, 1], [4, 1], [5, 1], [5, 2]]]</t>
   </si>
   <si>
@@ -491,6 +494,12 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -848,1753 +857,2230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159">
         <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
